--- a/P1_1 Initial Population.xlsx
+++ b/P1_1 Initial Population.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Inipop W" sheetId="1" r:id="rId1"/>
     <sheet name="Inipop M" sheetId="3" r:id="rId2"/>
-    <sheet name="Source" sheetId="4" r:id="rId3"/>
+    <sheet name="MetaData" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>IncStroke</t>
   </si>
@@ -208,13 +208,55 @@
     <t>Year</t>
   </si>
   <si>
-    <t>CSO Statbank</t>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
   </si>
   <si>
-    <t>Population estimates from 1926 (Number) by Sex, Single Year of Age and Year</t>
+    <t xml:space="preserve">Estimated total population resident in the Republic of Ireland in mid-April </t>
   </si>
   <si>
-    <t>Obtained via statbank.cso.ie</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Estimated by the Central Statistics Office using data from the 2012 and 2016 Censuses, and data on births, deaths and migration. See https://www.cso.ie/en/releasesandpublications/er/pme/populationandmigrationestimatesapril2017/, On-line ISSN 2009-5226</t>
+  </si>
+  <si>
+    <t>2012-2016</t>
+  </si>
+  <si>
+    <t>Men and Women aged 40-99</t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria or measurement method</t>
+  </si>
+  <si>
+    <t>Central Statistics Office (Ireland). Population estimates from 1926 (Number) by Sex, Single Year of Age and Year. https://data.cso.ie/table/PEA11</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Worksheets</t>
+  </si>
+  <si>
+    <t>CSO</t>
+  </si>
+  <si>
+    <t>Inipop W; Inipop M</t>
   </si>
 </sst>
 </file>
@@ -225,7 +267,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -241,6 +283,23 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -269,12 +328,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -4226,8 +4291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4923,7 +4988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
@@ -5618,26 +5683,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:2" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
